--- a/data/Frequencies.xlsx
+++ b/data/Frequencies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28A652D-C965-4337-9C9E-8397D162866D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2845A15-6761-4198-AFF0-4DA4EB433E5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -46,7 +46,16 @@
     <t>Temp_B</t>
   </si>
   <si>
-    <t>P.Aur</t>
+    <t>P.Aur_1</t>
+  </si>
+  <si>
+    <t>P.Aur_2</t>
+  </si>
+  <si>
+    <t>Test056</t>
+  </si>
+  <si>
+    <t>Test196</t>
   </si>
 </sst>
 </file>
@@ -373,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,6 +446,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>150188</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>150056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>150196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
